--- a/spatial history/utah_pop_place.xlsx
+++ b/spatial history/utah_pop_place.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37080" yWindow="2620" windowWidth="24780" windowHeight="18460"/>
+    <workbookView xWindow="39100" yWindow="460" windowWidth="24780" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5170" uniqueCount="1655">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -4989,6 +4989,9 @@
   </si>
   <si>
     <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>St. George</t>
   </si>
 </sst>
 </file>
@@ -5353,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W543"/>
+  <dimension ref="A1:W544"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="B533" sqref="B533"/>
+      <selection activeCell="H533" sqref="A533:XFD533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35920,7 +35923,7 @@
         <v>1455098</v>
       </c>
       <c r="C533" t="s">
-        <v>498</v>
+        <v>1654</v>
       </c>
       <c r="D533" t="s">
         <v>509</v>
@@ -35965,21 +35968,18 @@
         <v>1633</v>
       </c>
       <c r="V533" t="s">
-        <v>498</v>
-      </c>
-      <c r="W533">
-        <v>625</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534">
-        <v>1343095</v>
+        <v>1342412</v>
       </c>
       <c r="B534">
-        <v>1455857</v>
+        <v>1455098</v>
       </c>
       <c r="C534" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D534" t="s">
         <v>509</v>
@@ -35991,54 +35991,54 @@
         <v>49</v>
       </c>
       <c r="G534" t="s">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="H534">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I534" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J534" t="s">
-        <v>1151</v>
+        <v>1549</v>
       </c>
       <c r="K534">
-        <v>40.0113439</v>
+        <v>37.104147600000012</v>
       </c>
       <c r="L534">
-        <v>-111.67686980000001</v>
+        <v>-113.5841233</v>
       </c>
       <c r="Q534">
-        <v>1632</v>
+        <v>822</v>
       </c>
       <c r="R534">
-        <v>5354</v>
+        <v>2697</v>
       </c>
       <c r="S534" t="s">
-        <v>361</v>
+        <v>498</v>
       </c>
       <c r="T534" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="U534" t="s">
         <v>1633</v>
       </c>
       <c r="V534" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W534">
-        <v>11</v>
+        <v>625</v>
       </c>
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535">
-        <v>1343109</v>
+        <v>1343095</v>
       </c>
       <c r="B535">
-        <v>1455872</v>
+        <v>1455857</v>
       </c>
       <c r="C535" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D535" t="s">
         <v>509</v>
@@ -36050,54 +36050,54 @@
         <v>49</v>
       </c>
       <c r="G535" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H535">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I535" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J535" t="s">
-        <v>1259</v>
+        <v>1151</v>
       </c>
       <c r="K535">
-        <v>40.470788499999998</v>
+        <v>40.0113439</v>
       </c>
       <c r="L535">
-        <v>-111.41462749999999</v>
+        <v>-111.67686980000001</v>
       </c>
       <c r="Q535">
-        <v>1742</v>
+        <v>1632</v>
       </c>
       <c r="R535">
-        <v>5715</v>
+        <v>5354</v>
       </c>
       <c r="S535" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="T535" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="U535" t="s">
         <v>1633</v>
       </c>
       <c r="V535" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W535">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536">
-        <v>1343111</v>
+        <v>1343109</v>
       </c>
       <c r="B536">
-        <v>1455874</v>
+        <v>1455872</v>
       </c>
       <c r="C536" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D536" t="s">
         <v>509</v>
@@ -36109,54 +36109,54 @@
         <v>49</v>
       </c>
       <c r="G536" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H536">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I536" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J536" t="s">
-        <v>1550</v>
+        <v>1259</v>
       </c>
       <c r="K536">
-        <v>39.547744000000002</v>
+        <v>40.470788499999998</v>
       </c>
       <c r="L536">
-        <v>-110.4148768</v>
+        <v>-111.41462749999999</v>
       </c>
       <c r="Q536">
-        <v>1919</v>
+        <v>1742</v>
       </c>
       <c r="R536">
-        <v>6296</v>
+        <v>5715</v>
       </c>
       <c r="S536" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="T536" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="U536" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="V536" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W536">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537">
-        <v>1343115</v>
+        <v>1343111</v>
       </c>
       <c r="B537">
-        <v>1455878</v>
+        <v>1455874</v>
       </c>
       <c r="C537" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D537" t="s">
         <v>509</v>
@@ -36168,51 +36168,54 @@
         <v>49</v>
       </c>
       <c r="G537" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H537">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="I537" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J537" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="K537">
-        <v>40.506899100000012</v>
+        <v>39.547744000000002</v>
       </c>
       <c r="L537">
-        <v>-111.4132388</v>
+        <v>-110.4148768</v>
       </c>
       <c r="Q537">
-        <v>1707</v>
+        <v>1919</v>
       </c>
       <c r="R537">
-        <v>5600</v>
+        <v>6296</v>
       </c>
       <c r="S537" t="s">
-        <v>502</v>
+        <v>133</v>
       </c>
       <c r="T537" t="s">
         <v>1622</v>
       </c>
+      <c r="U537" t="s">
+        <v>1643</v>
+      </c>
       <c r="V537" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W537">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538">
-        <v>1343141</v>
+        <v>1343115</v>
       </c>
       <c r="B538">
-        <v>1455905</v>
+        <v>1455878</v>
       </c>
       <c r="C538" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D538" t="s">
         <v>509</v>
@@ -36224,54 +36227,51 @@
         <v>49</v>
       </c>
       <c r="G538" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H538">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I538" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="J538" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="K538">
-        <v>40.591614700000008</v>
+        <v>40.506899100000012</v>
       </c>
       <c r="L538">
-        <v>-111.8841013</v>
+        <v>-111.4132388</v>
       </c>
       <c r="Q538">
-        <v>1361</v>
+        <v>1707</v>
       </c>
       <c r="R538">
-        <v>4465</v>
+        <v>5600</v>
       </c>
       <c r="S538" t="s">
-        <v>101</v>
+        <v>502</v>
       </c>
       <c r="T538" t="s">
         <v>1622</v>
       </c>
-      <c r="U538" t="s">
-        <v>1633</v>
-      </c>
       <c r="V538" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="W538">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539">
-        <v>1557320</v>
+        <v>1343141</v>
       </c>
       <c r="B539">
-        <v>1681817</v>
+        <v>1455905</v>
       </c>
       <c r="C539" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D539" t="s">
         <v>509</v>
@@ -36283,40 +36283,40 @@
         <v>49</v>
       </c>
       <c r="G539" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H539">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="I539" t="s">
-        <v>705</v>
+        <v>1048</v>
       </c>
       <c r="J539" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="K539">
-        <v>41.975479399999998</v>
+        <v>40.591614700000008</v>
       </c>
       <c r="L539">
-        <v>-112.2071828</v>
+        <v>-111.8841013</v>
       </c>
       <c r="Q539">
-        <v>1331</v>
+        <v>1361</v>
       </c>
       <c r="R539">
-        <v>4367</v>
+        <v>4465</v>
       </c>
       <c r="S539" t="s">
-        <v>504</v>
+        <v>101</v>
       </c>
       <c r="T539" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="U539" t="s">
         <v>1633</v>
       </c>
       <c r="V539" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W539">
         <v>1</v>
@@ -36324,13 +36324,13 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540">
-        <v>1574708</v>
+        <v>1557320</v>
       </c>
       <c r="B540">
-        <v>1699809</v>
+        <v>1681817</v>
       </c>
       <c r="C540" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D540" t="s">
         <v>509</v>
@@ -36342,54 +36342,54 @@
         <v>49</v>
       </c>
       <c r="G540" t="s">
-        <v>140</v>
+        <v>524</v>
       </c>
       <c r="H540">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="I540" t="s">
-        <v>1049</v>
+        <v>705</v>
       </c>
       <c r="J540" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="K540">
-        <v>40.362999600000002</v>
+        <v>41.975479399999998</v>
       </c>
       <c r="L540">
-        <v>-112.4505084</v>
+        <v>-112.2071828</v>
       </c>
       <c r="Q540">
-        <v>1537</v>
+        <v>1331</v>
       </c>
       <c r="R540">
-        <v>5043</v>
+        <v>4367</v>
       </c>
       <c r="S540" t="s">
-        <v>1578</v>
+        <v>504</v>
       </c>
       <c r="T540" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="U540" t="s">
         <v>1633</v>
       </c>
       <c r="V540" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W540">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541">
-        <v>1715141</v>
+        <v>1574708</v>
       </c>
       <c r="B541">
-        <v>1852443</v>
+        <v>1699809</v>
       </c>
       <c r="C541" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D541" t="s">
         <v>509</v>
@@ -36401,54 +36401,54 @@
         <v>49</v>
       </c>
       <c r="G541" t="s">
-        <v>523</v>
+        <v>140</v>
       </c>
       <c r="H541">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I541" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J541" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K541">
-        <v>41.889101799999999</v>
+        <v>40.362999600000002</v>
       </c>
       <c r="L541">
-        <v>-111.3857615</v>
+        <v>-112.4505084</v>
       </c>
       <c r="Q541">
-        <v>1830</v>
+        <v>1537</v>
       </c>
       <c r="R541">
-        <v>6004</v>
+        <v>5043</v>
       </c>
       <c r="S541" t="s">
-        <v>57</v>
+        <v>1578</v>
       </c>
       <c r="T541" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="U541" t="s">
         <v>1633</v>
       </c>
       <c r="V541" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W541">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542">
-        <v>1727991</v>
+        <v>1715141</v>
       </c>
       <c r="B542">
-        <v>1867579</v>
+        <v>1852443</v>
       </c>
       <c r="C542" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D542" t="s">
         <v>509</v>
@@ -36460,54 +36460,54 @@
         <v>49</v>
       </c>
       <c r="G542" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="H542">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I542" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J542" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K542">
-        <v>40.6868914</v>
+        <v>41.889101799999999</v>
       </c>
       <c r="L542">
-        <v>-111.8754907</v>
+        <v>-111.3857615</v>
       </c>
       <c r="Q542">
-        <v>1306</v>
+        <v>1830</v>
       </c>
       <c r="R542">
-        <v>4285</v>
+        <v>6004</v>
       </c>
       <c r="S542" t="s">
-        <v>1558</v>
+        <v>57</v>
       </c>
       <c r="T542" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="U542" t="s">
-        <v>1653</v>
+        <v>1633</v>
       </c>
       <c r="V542" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W542">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543">
-        <v>2268987</v>
+        <v>1727991</v>
       </c>
       <c r="B543">
-        <v>2797924</v>
+        <v>1867579</v>
       </c>
       <c r="C543" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D543" t="s">
         <v>509</v>
@@ -36525,33 +36525,92 @@
         <v>35</v>
       </c>
       <c r="I543" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J543" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K543">
+        <v>40.6868914</v>
+      </c>
+      <c r="L543">
+        <v>-111.8754907</v>
+      </c>
+      <c r="Q543">
+        <v>1306</v>
+      </c>
+      <c r="R543">
+        <v>4285</v>
+      </c>
+      <c r="S543" t="s">
+        <v>1558</v>
+      </c>
+      <c r="T543" t="s">
+        <v>1631</v>
+      </c>
+      <c r="U543" t="s">
+        <v>1653</v>
+      </c>
+      <c r="V543" t="s">
+        <v>507</v>
+      </c>
+      <c r="W543">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>2268987</v>
+      </c>
+      <c r="B544">
+        <v>2797924</v>
+      </c>
+      <c r="C544" t="s">
+        <v>508</v>
+      </c>
+      <c r="D544" t="s">
+        <v>509</v>
+      </c>
+      <c r="E544" t="s">
+        <v>510</v>
+      </c>
+      <c r="F544">
+        <v>49</v>
+      </c>
+      <c r="G544" t="s">
+        <v>511</v>
+      </c>
+      <c r="H544">
+        <v>35</v>
+      </c>
+      <c r="I544" t="s">
         <v>1052</v>
       </c>
-      <c r="J543" t="s">
+      <c r="J544" t="s">
         <v>1557</v>
       </c>
-      <c r="K543">
+      <c r="K544">
         <v>40.769978999999999</v>
       </c>
-      <c r="L543">
+      <c r="L544">
         <v>-111.75963</v>
       </c>
-      <c r="Q543">
+      <c r="Q544">
         <v>1639</v>
       </c>
-      <c r="R543">
+      <c r="R544">
         <v>5377</v>
       </c>
-      <c r="S543" t="s">
+      <c r="S544" t="s">
         <v>274</v>
       </c>
-      <c r="T543" t="s">
+      <c r="T544" t="s">
         <v>1632</v>
       </c>
-      <c r="V543" t="s">
+      <c r="V544" t="s">
         <v>508</v>
       </c>
-      <c r="W543">
+      <c r="W544">
         <v>5</v>
       </c>
     </row>

--- a/spatial history/utah_pop_place.xlsx
+++ b/spatial history/utah_pop_place.xlsx
@@ -5358,8 +5358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="H533" sqref="A533:XFD533"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="W404" sqref="W404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28655,7 +28655,7 @@
         <v>380</v>
       </c>
       <c r="W403">
-        <v>1230</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.2">
